--- a/production/BOM_PCBWay.xlsx
+++ b/production/BOM_PCBWay.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estulin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estulin\Desktop\LoRa based triple stepper board\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="160">
   <si>
     <t>Item #</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Your Instructions / Notes</t>
-  </si>
-  <si>
     <t>SMD</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>32001505/6CEU</t>
   </si>
   <si>
-    <t>32001505/6CEU - DUAL CORE LoRa MODULE</t>
-  </si>
-  <si>
     <t>MOT1,MOT2,MOT3</t>
   </si>
   <si>
@@ -546,6 +540,39 @@
   </si>
   <si>
     <t>LoRa based triple stepper board PCS BOM</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>MOUSER CODE</t>
+  </si>
+  <si>
+    <t>603-RC</t>
+  </si>
+  <si>
+    <t>C18,C33,CC48</t>
+  </si>
+  <si>
+    <t>81-GRM21BR71C475KE1L</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>80-C0603C221J5GAUTLR</t>
+  </si>
+  <si>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 470nF+/-10% 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>187-CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>32001506BEU - MIPOT DUAL CORE LoRa MODULE</t>
   </si>
 </sst>
 </file>
@@ -645,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -668,19 +695,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,7 +705,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,15 +724,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -728,12 +733,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -752,17 +751,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,46 +1118,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I42"/>
+  <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="35.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="78" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="78.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="D2" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="D2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1164,7 +1172,7 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1177,970 +1185,1032 @@
         <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16">
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="B13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="21">
+        <v>742792030</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="13">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1755752</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="B20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="11">
         <v>15</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="B21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1987096</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="11">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="B22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1792265</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="11">
         <v>17</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="B23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="11">
+        <v>18</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="11">
+        <v>19</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="11">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="11">
+        <v>22</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="11">
+        <v>35</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11">
+        <v>23</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="11">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="11">
+        <v>24</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="11">
+        <v>17</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11">
+        <v>25</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="11">
+        <v>8</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13">
+        <v>26</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="11">
+        <v>6</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="11">
+        <v>27</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11">
+        <v>28</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="11">
+        <v>29</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="11">
+        <v>30</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="11">
+        <v>31</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="13">
+        <v>32</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="11">
+        <v>33</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="11">
+        <v>34</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="18">
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="11">
+        <v>35</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="11">
+        <v>36</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="11">
+        <v>37</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="13">
+        <v>38</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18">
-        <v>30</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="16">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16">
-        <v>4</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="16">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="16">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="16">
-        <v>7</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16">
-        <v>8</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="16">
-        <v>3</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="23">
-        <v>742792030</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1">
-      <c r="A16" s="18">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1755752</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="16">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16">
-        <v>12</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="16">
-        <v>13</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="25">
-        <v>1987096</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="16">
-        <v>14</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="16">
-        <v>3</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="25">
-        <v>1792265</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="16">
-        <v>15</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="16">
-        <v>15</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="16">
-        <v>15</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="16">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="16">
-        <v>15</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="16">
-        <v>1</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="16">
-        <v>15</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="16">
-        <v>2</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="16">
-        <v>15</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="16">
-        <v>35</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="16">
-        <v>15</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="16">
-        <v>3</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="16">
-        <v>15</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="16">
-        <v>17</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="16">
-        <v>15</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="16">
-        <v>8</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="16">
-        <v>15</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="16">
-        <v>6</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="16">
-        <v>15</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="16">
-        <v>3</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="16">
-        <v>15</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="16">
-        <v>2</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="16">
-        <v>15</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="16">
-        <v>2</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="16">
-        <v>15</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="16">
-        <v>15</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="16">
-        <v>15</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="16">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="16">
-        <v>15</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="16">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="16">
-        <v>15</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="16">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="16">
-        <v>15</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="16">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="16">
-        <v>15</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="16">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="16">
-        <v>15</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="16">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="D44" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="16">
-        <v>15</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="16">
-        <v>2</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="11"/>
+      <c r="H44" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2148,7 +2218,7 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1"/>
+    <hyperlink ref="I24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
